--- a/Pion_efficiency_results_incremental_training.xlsx
+++ b/Pion_efficiency_results_incremental_training.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerhard\Documents\MSc-thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7FDB96-DBCB-4812-A28E-257E059168BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1DD5DD-D235-4AA0-818F-09B466E1DD4A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="-120" windowWidth="27315" windowHeight="16440" xr2:uid="{62A2443D-5547-4668-A707-181389D6E6BC}"/>
+    <workbookView xWindow="2895" yWindow="1170" windowWidth="20310" windowHeight="11835" xr2:uid="{62A2443D-5547-4668-A707-181389D6E6BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -87,7 +87,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,19 +232,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -314,19 +314,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C2" s="2">
         <v>1.2E-2</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="B3" s="2">
         <v>1.4E-2</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="B4" s="2">
         <v>1.1599999999999999E-2</v>
@@ -1642,12 +1642,12 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
